--- a/Keiba/kikka_2024_results.xlsx
+++ b/Keiba/kikka_2024_results.xlsx
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>タイム</t>
+          <t xml:space="preserve">タイム</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>キャロットファーム</t>
+          <t xml:space="preserve">キャロットファーム</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ビザンチンドリーム</t>
+          <t xml:space="preserve">ビザンチンドリーム</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>岩田康誠</t>
+          <t xml:space="preserve">岩田康誠</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>メリオーレム</t>
+          <t xml:space="preserve">メリオーレム</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ｍ．デム</t>
+          <t xml:space="preserve">Ｍ．デム</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>ビッグレッドファーム</t>
+          <t xml:space="preserve">ビッグレッドファーム</t>
         </is>
       </c>
     </row>
